--- a/Code/Results/Cases/Case_9_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.83706940042351</v>
+        <v>12.47551211940878</v>
       </c>
       <c r="C2">
-        <v>8.119222431460866</v>
+        <v>7.677601209604298</v>
       </c>
       <c r="D2">
-        <v>5.796903133956629</v>
+        <v>5.84937883240096</v>
       </c>
       <c r="E2">
-        <v>8.24005104627258</v>
+        <v>8.157802513039217</v>
       </c>
       <c r="F2">
-        <v>22.63009420812487</v>
+        <v>22.02420095592904</v>
       </c>
       <c r="G2">
-        <v>25.67587398686643</v>
+        <v>24.36954731608553</v>
       </c>
       <c r="H2">
-        <v>3.194677954553113</v>
+        <v>3.062925735077717</v>
       </c>
       <c r="I2">
-        <v>3.778454674794802</v>
+        <v>3.596989942385752</v>
       </c>
       <c r="J2">
-        <v>10.12092606501824</v>
+        <v>10.09998485687059</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.222566596380381</v>
+        <v>13.02188906306862</v>
       </c>
       <c r="M2">
-        <v>10.21248518363991</v>
+        <v>11.22371830283774</v>
       </c>
       <c r="N2">
-        <v>6.184088718695242</v>
+        <v>6.155835245387875</v>
       </c>
       <c r="O2">
-        <v>9.786922586820962</v>
+        <v>10.25194699247936</v>
       </c>
       <c r="P2">
-        <v>13.75123373347639</v>
+        <v>6.415554200211439</v>
       </c>
       <c r="Q2">
-        <v>16.73230948335367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.719297168350904</v>
+      </c>
+      <c r="R2">
+        <v>13.57039688149333</v>
+      </c>
+      <c r="S2">
+        <v>16.25544831971898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.07142672264865</v>
+        <v>11.73807057954044</v>
       </c>
       <c r="C3">
-        <v>8.021161932258035</v>
+        <v>7.521125643780517</v>
       </c>
       <c r="D3">
-        <v>5.626681804793952</v>
+        <v>5.678822167124582</v>
       </c>
       <c r="E3">
-        <v>8.147591439492382</v>
+        <v>8.075865145514229</v>
       </c>
       <c r="F3">
-        <v>22.47204326883856</v>
+        <v>21.90005475134364</v>
       </c>
       <c r="G3">
-        <v>25.48621554386386</v>
+        <v>24.27927255500752</v>
       </c>
       <c r="H3">
-        <v>3.363050285195642</v>
+        <v>3.220737163400542</v>
       </c>
       <c r="I3">
-        <v>3.910636536162184</v>
+        <v>3.71519474315081</v>
       </c>
       <c r="J3">
-        <v>10.15113693125235</v>
+        <v>10.10647023928414</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.197510107511695</v>
+        <v>13.14953720782229</v>
       </c>
       <c r="M3">
-        <v>9.646924887612409</v>
+        <v>11.24217914383169</v>
       </c>
       <c r="N3">
-        <v>6.065184713267421</v>
+        <v>6.133097179255133</v>
       </c>
       <c r="O3">
-        <v>9.458500539936999</v>
+        <v>9.689898252317178</v>
       </c>
       <c r="P3">
-        <v>13.8774367251716</v>
+        <v>6.293026479104292</v>
       </c>
       <c r="Q3">
-        <v>16.72972752905327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.39266362346193</v>
+      </c>
+      <c r="R3">
+        <v>13.68807064029451</v>
+      </c>
+      <c r="S3">
+        <v>16.273406559634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57435220903207</v>
+        <v>11.25808958289481</v>
       </c>
       <c r="C4">
-        <v>7.960091681092893</v>
+        <v>7.424300040555733</v>
       </c>
       <c r="D4">
-        <v>5.52061894367503</v>
+        <v>5.572708285498947</v>
       </c>
       <c r="E4">
-        <v>8.089806399501738</v>
+        <v>8.024618461897411</v>
       </c>
       <c r="F4">
-        <v>22.38092594906344</v>
+        <v>21.82879123167875</v>
       </c>
       <c r="G4">
-        <v>25.37806228618976</v>
+        <v>24.23337254029033</v>
       </c>
       <c r="H4">
-        <v>3.470472384505884</v>
+        <v>3.321453026218364</v>
       </c>
       <c r="I4">
-        <v>3.995679365370348</v>
+        <v>3.791522731022966</v>
       </c>
       <c r="J4">
-        <v>10.17202977150331</v>
+        <v>10.11136223545457</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.181374507556327</v>
+        <v>13.22943885553575</v>
       </c>
       <c r="M4">
-        <v>9.281260766435953</v>
+        <v>11.26873516640844</v>
       </c>
       <c r="N4">
-        <v>5.991740661243494</v>
+        <v>6.118415840428296</v>
       </c>
       <c r="O4">
-        <v>9.251494883024481</v>
+        <v>9.326626010839847</v>
       </c>
       <c r="P4">
-        <v>13.95659042455734</v>
+        <v>6.217697886607238</v>
       </c>
       <c r="Q4">
-        <v>16.73292268768149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.186541361267187</v>
+      </c>
+      <c r="R4">
+        <v>13.76214081008822</v>
+      </c>
+      <c r="S4">
+        <v>16.28836451577386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.36017579405768</v>
+        <v>11.05073167966759</v>
       </c>
       <c r="C5">
-        <v>7.93695874906213</v>
+        <v>7.387454436607778</v>
       </c>
       <c r="D5">
-        <v>5.477447945802425</v>
+        <v>5.529561168759249</v>
       </c>
       <c r="E5">
-        <v>8.065114891912256</v>
+        <v>8.002622269167899</v>
       </c>
       <c r="F5">
-        <v>22.34013404700982</v>
+        <v>21.7958403269644</v>
       </c>
       <c r="G5">
-        <v>25.32747559310178</v>
+        <v>24.20847197450032</v>
       </c>
       <c r="H5">
-        <v>3.515561328100878</v>
+        <v>3.363745012710913</v>
       </c>
       <c r="I5">
-        <v>4.033759069066283</v>
+        <v>3.826432825486145</v>
       </c>
       <c r="J5">
-        <v>10.17971941379991</v>
+        <v>10.11212601251092</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.174250291239817</v>
+        <v>13.25848578240784</v>
       </c>
       <c r="M5">
-        <v>9.127702613003812</v>
+        <v>11.28138204281854</v>
       </c>
       <c r="N5">
-        <v>5.962956839644566</v>
+        <v>6.111908435996249</v>
       </c>
       <c r="O5">
-        <v>9.165315388369205</v>
+        <v>9.174111538423393</v>
       </c>
       <c r="P5">
-        <v>13.98894622298814</v>
+        <v>6.188229018861104</v>
       </c>
       <c r="Q5">
-        <v>16.73188951982723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.100660996365892</v>
+      </c>
+      <c r="R5">
+        <v>13.79253066073602</v>
+      </c>
+      <c r="S5">
+        <v>16.29192844674145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.31818107682861</v>
+        <v>11.00979317444347</v>
       </c>
       <c r="C6">
-        <v>7.935547157236862</v>
+        <v>7.384766378199157</v>
       </c>
       <c r="D6">
-        <v>5.470728167296703</v>
+        <v>5.522852032670628</v>
       </c>
       <c r="E6">
-        <v>8.059901836281307</v>
+        <v>7.997874389147711</v>
       </c>
       <c r="F6">
-        <v>22.32714632120062</v>
+        <v>21.78414203493021</v>
       </c>
       <c r="G6">
-        <v>25.30869846804892</v>
+        <v>24.19404400991895</v>
       </c>
       <c r="H6">
-        <v>3.523460725590274</v>
+        <v>3.371167554929978</v>
       </c>
       <c r="I6">
-        <v>4.043263421829954</v>
+        <v>3.835956268003843</v>
       </c>
       <c r="J6">
-        <v>10.17931310385717</v>
+        <v>10.11048508201083</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.172618075218733</v>
+        <v>13.25857468011458</v>
       </c>
       <c r="M6">
-        <v>9.101951927442478</v>
+        <v>11.28127914178598</v>
       </c>
       <c r="N6">
-        <v>5.959680317282082</v>
+        <v>6.11039957003411</v>
       </c>
       <c r="O6">
-        <v>9.150216942476955</v>
+        <v>9.148543182704648</v>
       </c>
       <c r="P6">
-        <v>13.99395137650263</v>
+        <v>6.184836195648645</v>
       </c>
       <c r="Q6">
-        <v>16.72749003023651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.08560317169111</v>
+      </c>
+      <c r="R6">
+        <v>13.79729768961848</v>
+      </c>
+      <c r="S6">
+        <v>16.28830050655336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.55537720129619</v>
+        <v>11.23585761062366</v>
       </c>
       <c r="C7">
-        <v>7.966473707057216</v>
+        <v>7.431114559574871</v>
       </c>
       <c r="D7">
-        <v>5.521301409612659</v>
+        <v>5.576168620605012</v>
       </c>
       <c r="E7">
-        <v>8.086498596218869</v>
+        <v>8.021962963467564</v>
       </c>
       <c r="F7">
-        <v>22.36321760573979</v>
+        <v>21.80179872951265</v>
       </c>
       <c r="G7">
-        <v>25.3487891424162</v>
+        <v>24.27034958374</v>
       </c>
       <c r="H7">
-        <v>3.472014837510553</v>
+        <v>3.323410862123292</v>
       </c>
       <c r="I7">
-        <v>4.004436420387446</v>
+        <v>3.802125069683408</v>
       </c>
       <c r="J7">
-        <v>10.16745102775063</v>
+        <v>10.07695934072074</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.18009970200179</v>
+        <v>13.21251229556439</v>
       </c>
       <c r="M7">
-        <v>9.279266553858175</v>
+        <v>11.25938506705039</v>
       </c>
       <c r="N7">
-        <v>5.995442502046624</v>
+        <v>6.116965168082115</v>
       </c>
       <c r="O7">
-        <v>9.248398875593205</v>
+        <v>9.321186748548916</v>
       </c>
       <c r="P7">
-        <v>13.95600081601667</v>
+        <v>6.221267484319207</v>
       </c>
       <c r="Q7">
-        <v>16.72119182131052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.18237325649771</v>
+      </c>
+      <c r="R7">
+        <v>13.76148274948183</v>
+      </c>
+      <c r="S7">
+        <v>16.26980252868616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.55891460131483</v>
+        <v>12.19714419472651</v>
       </c>
       <c r="C8">
-        <v>8.094597737936478</v>
+        <v>7.629617205537967</v>
       </c>
       <c r="D8">
-        <v>5.740181759765155</v>
+        <v>5.801445629192775</v>
       </c>
       <c r="E8">
-        <v>8.204558282792073</v>
+        <v>8.127938702663476</v>
       </c>
       <c r="F8">
-        <v>22.55199875110146</v>
+        <v>21.92724429862075</v>
       </c>
       <c r="G8">
-        <v>25.57144566148233</v>
+        <v>24.51776264793851</v>
       </c>
       <c r="H8">
-        <v>3.253066235511656</v>
+        <v>3.119152929761027</v>
       </c>
       <c r="I8">
-        <v>3.833649300967808</v>
+        <v>3.650608578238161</v>
       </c>
       <c r="J8">
-        <v>10.12471013354502</v>
+        <v>9.999503308448549</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.212589649116365</v>
+        <v>13.03622659136611</v>
       </c>
       <c r="M8">
-        <v>10.02141467149304</v>
+        <v>11.20675544278295</v>
       </c>
       <c r="N8">
-        <v>6.148486847830113</v>
+        <v>6.145996106743961</v>
       </c>
       <c r="O8">
-        <v>9.672381800774023</v>
+        <v>10.05127050567353</v>
       </c>
       <c r="P8">
-        <v>13.79327043192543</v>
+        <v>6.378301931723097</v>
       </c>
       <c r="Q8">
-        <v>16.71504912448412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.601996121623703</v>
+      </c>
+      <c r="R8">
+        <v>13.60919019385743</v>
+      </c>
+      <c r="S8">
+        <v>16.22266183554241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33569574070152</v>
+        <v>13.90234940379838</v>
       </c>
       <c r="C9">
-        <v>8.327107406922323</v>
+        <v>8.002808386626583</v>
       </c>
       <c r="D9">
-        <v>6.152635973640071</v>
+        <v>6.217286450487502</v>
       </c>
       <c r="E9">
-        <v>8.432735385757875</v>
+        <v>8.330926166004907</v>
       </c>
       <c r="F9">
-        <v>22.99912399898928</v>
+        <v>22.27727085540305</v>
       </c>
       <c r="G9">
-        <v>26.12459692414709</v>
+        <v>24.88795546471792</v>
       </c>
       <c r="H9">
-        <v>2.853747264669576</v>
+        <v>2.745249954359643</v>
       </c>
       <c r="I9">
-        <v>3.515778763648499</v>
+        <v>3.365575437003392</v>
       </c>
       <c r="J9">
-        <v>10.06818131518917</v>
+        <v>9.968246890962348</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.272402976369168</v>
+        <v>12.73948017642134</v>
       </c>
       <c r="M9">
-        <v>11.32848731232474</v>
+        <v>11.24861268212228</v>
       </c>
       <c r="N9">
-        <v>6.437003715150515</v>
+        <v>6.200031555235312</v>
       </c>
       <c r="O9">
-        <v>10.46036410538086</v>
+        <v>11.34908261622252</v>
       </c>
       <c r="P9">
-        <v>13.48850623694029</v>
+        <v>6.677535399235532</v>
       </c>
       <c r="Q9">
-        <v>16.76267094916736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.38376724474569</v>
+      </c>
+      <c r="R9">
+        <v>13.32678453508762</v>
+      </c>
+      <c r="S9">
+        <v>16.20826062063582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.46572611144825</v>
+        <v>14.97064221531743</v>
       </c>
       <c r="C10">
-        <v>8.51083559046265</v>
+        <v>8.281282683300576</v>
       </c>
       <c r="D10">
-        <v>6.408187870504531</v>
+        <v>6.489591023295452</v>
       </c>
       <c r="E10">
-        <v>8.529084622564762</v>
+        <v>8.415006647095439</v>
       </c>
       <c r="F10">
-        <v>23.25132536509644</v>
+        <v>22.40956565500364</v>
       </c>
       <c r="G10">
-        <v>26.43255068278161</v>
+        <v>25.45900020127772</v>
       </c>
       <c r="H10">
-        <v>2.604152263172244</v>
+        <v>2.515391355480787</v>
       </c>
       <c r="I10">
-        <v>3.30954979784218</v>
+        <v>3.185413636541706</v>
       </c>
       <c r="J10">
-        <v>10.01568885853772</v>
+        <v>9.770199930930529</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.299770517693994</v>
+        <v>12.47332547524813</v>
       </c>
       <c r="M10">
-        <v>12.19064859112844</v>
+        <v>11.29328093000776</v>
       </c>
       <c r="N10">
-        <v>6.58824554040539</v>
+        <v>6.224230023707142</v>
       </c>
       <c r="O10">
-        <v>10.94899286986531</v>
+        <v>12.18931524839497</v>
       </c>
       <c r="P10">
-        <v>13.27067330255215</v>
+        <v>6.835754195210912</v>
       </c>
       <c r="Q10">
-        <v>16.76471177032641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.8621103760142</v>
+      </c>
+      <c r="R10">
+        <v>13.12877810679857</v>
+      </c>
+      <c r="S10">
+        <v>16.12652032660679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.64157690553537</v>
+        <v>15.13158397126982</v>
       </c>
       <c r="C11">
-        <v>8.734502124753813</v>
+        <v>8.54812234818716</v>
       </c>
       <c r="D11">
-        <v>6.21026879146987</v>
+        <v>6.318869395225979</v>
       </c>
       <c r="E11">
-        <v>8.06201469240089</v>
+        <v>7.964991144225617</v>
       </c>
       <c r="F11">
-        <v>22.51199955107484</v>
+        <v>21.59101265549466</v>
       </c>
       <c r="G11">
-        <v>25.44963860106609</v>
+        <v>25.32452245846001</v>
       </c>
       <c r="H11">
-        <v>3.368873245287226</v>
+        <v>3.307303597258191</v>
       </c>
       <c r="I11">
-        <v>3.269611846593518</v>
+        <v>3.159166161203089</v>
       </c>
       <c r="J11">
-        <v>9.806157586222856</v>
+        <v>9.299032585945117</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.237584195454194</v>
+        <v>12.05838317780007</v>
       </c>
       <c r="M11">
-        <v>12.51320703038136</v>
+        <v>10.9824980825715</v>
       </c>
       <c r="N11">
-        <v>6.172203179023036</v>
+        <v>6.176087640964586</v>
       </c>
       <c r="O11">
-        <v>10.67795391347756</v>
+        <v>12.47547525287452</v>
       </c>
       <c r="P11">
-        <v>13.17394467224195</v>
+        <v>6.40684569345735</v>
       </c>
       <c r="Q11">
-        <v>16.29867228395307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.58178328963762</v>
+      </c>
+      <c r="R11">
+        <v>13.0628160476859</v>
+      </c>
+      <c r="S11">
+        <v>15.60363623435103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.57561315088642</v>
+        <v>15.07523866002899</v>
       </c>
       <c r="C12">
-        <v>8.891846413578945</v>
+        <v>8.717866617224926</v>
       </c>
       <c r="D12">
-        <v>5.984969350525214</v>
+        <v>6.103593086867293</v>
       </c>
       <c r="E12">
-        <v>7.724319609306915</v>
+        <v>7.640437441374918</v>
       </c>
       <c r="F12">
-        <v>21.85064004387461</v>
+        <v>20.92368222923101</v>
       </c>
       <c r="G12">
-        <v>24.58344501429185</v>
+        <v>24.87266551417853</v>
       </c>
       <c r="H12">
-        <v>4.579411885302926</v>
+        <v>4.535147111189404</v>
       </c>
       <c r="I12">
-        <v>3.261110121514863</v>
+        <v>3.153124957866902</v>
       </c>
       <c r="J12">
-        <v>9.645448286793368</v>
+        <v>9.069167222657359</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.229315005137416</v>
+        <v>11.80416623458332</v>
       </c>
       <c r="M12">
-        <v>12.61001222587428</v>
+        <v>10.73209329218857</v>
       </c>
       <c r="N12">
-        <v>5.805747856532381</v>
+        <v>6.180401838526883</v>
       </c>
       <c r="O12">
-        <v>10.3441260610875</v>
+        <v>12.55554511680664</v>
       </c>
       <c r="P12">
-        <v>13.15037891168642</v>
+        <v>6.027195748515832</v>
       </c>
       <c r="Q12">
-        <v>15.91762739006855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.24586740101048</v>
+      </c>
+      <c r="R12">
+        <v>13.06103558910669</v>
+      </c>
+      <c r="S12">
+        <v>15.2197587490029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.29848789113789</v>
+        <v>14.83386724917002</v>
       </c>
       <c r="C13">
-        <v>9.016568118809289</v>
+        <v>8.844734566913756</v>
       </c>
       <c r="D13">
-        <v>5.723007986696879</v>
+        <v>5.833435563782226</v>
       </c>
       <c r="E13">
-        <v>7.469534750121165</v>
+        <v>7.397352144714704</v>
       </c>
       <c r="F13">
-        <v>21.18089710722192</v>
+        <v>20.32338019404051</v>
       </c>
       <c r="G13">
-        <v>23.70695040149706</v>
+        <v>23.9300000221227</v>
       </c>
       <c r="H13">
-        <v>5.908453816992331</v>
+        <v>5.872147706170899</v>
       </c>
       <c r="I13">
-        <v>3.28976006621443</v>
+        <v>3.17758083119678</v>
       </c>
       <c r="J13">
-        <v>9.505557293338057</v>
+        <v>9.009501396430899</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.258362099978529</v>
+        <v>11.6365291600754</v>
       </c>
       <c r="M13">
-        <v>12.5420855604288</v>
+        <v>10.51118108401717</v>
       </c>
       <c r="N13">
-        <v>5.463843987546626</v>
+        <v>6.221086755611125</v>
       </c>
       <c r="O13">
-        <v>9.933085017776335</v>
+        <v>12.4915309126372</v>
       </c>
       <c r="P13">
-        <v>13.17804672282453</v>
+        <v>5.671601018221385</v>
       </c>
       <c r="Q13">
-        <v>15.56085153441093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.84020554621276</v>
+      </c>
+      <c r="R13">
+        <v>13.1005635455916</v>
+      </c>
+      <c r="S13">
+        <v>14.91547371937127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.00107253231259</v>
+        <v>14.57352178205385</v>
       </c>
       <c r="C14">
-        <v>9.093659657192864</v>
+        <v>8.919558031743154</v>
       </c>
       <c r="D14">
-        <v>5.522022520559385</v>
+        <v>5.619120644901225</v>
       </c>
       <c r="E14">
-        <v>7.344482465866951</v>
+        <v>7.281003300044088</v>
       </c>
       <c r="F14">
-        <v>20.70584734705231</v>
+        <v>19.92759670624179</v>
       </c>
       <c r="G14">
-        <v>23.08349826171115</v>
+        <v>23.06047311292297</v>
       </c>
       <c r="H14">
-        <v>6.873904700488772</v>
+        <v>6.840406669323141</v>
       </c>
       <c r="I14">
-        <v>3.329266541891908</v>
+        <v>3.21169430691547</v>
       </c>
       <c r="J14">
-        <v>9.416671105876839</v>
+        <v>9.030011965310477</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.300633514678911</v>
+        <v>11.55161339952188</v>
       </c>
       <c r="M14">
-        <v>12.4192073540616</v>
+        <v>10.37101692874628</v>
       </c>
       <c r="N14">
-        <v>5.244369379630068</v>
+        <v>6.270501881115133</v>
       </c>
       <c r="O14">
-        <v>9.606894316621627</v>
+        <v>12.38052264440198</v>
       </c>
       <c r="P14">
-        <v>13.22103515373728</v>
+        <v>5.44251457685085</v>
       </c>
       <c r="Q14">
-        <v>15.3209825252951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.520887403889487</v>
+      </c>
+      <c r="R14">
+        <v>13.14580666745929</v>
+      </c>
+      <c r="S14">
+        <v>14.73421546514325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.8775745648424</v>
+        <v>14.46420735268647</v>
       </c>
       <c r="C15">
-        <v>9.107572762366011</v>
+        <v>8.932281364717394</v>
       </c>
       <c r="D15">
-        <v>5.465834473642596</v>
+        <v>5.556554935068069</v>
       </c>
       <c r="E15">
-        <v>7.321438451334098</v>
+        <v>7.260530100294849</v>
       </c>
       <c r="F15">
-        <v>20.58456901587003</v>
+        <v>19.83850377007082</v>
       </c>
       <c r="G15">
-        <v>22.92245246472463</v>
+        <v>22.75793960741154</v>
       </c>
       <c r="H15">
-        <v>7.101321884308809</v>
+        <v>7.067788146711871</v>
       </c>
       <c r="I15">
-        <v>3.351130962034824</v>
+        <v>3.231553367127286</v>
       </c>
       <c r="J15">
-        <v>9.398382552926638</v>
+        <v>9.061821935463179</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.312321500333243</v>
+        <v>11.54239491561766</v>
       </c>
       <c r="M15">
-        <v>12.35353228030981</v>
+        <v>10.34110858367939</v>
       </c>
       <c r="N15">
-        <v>5.194391535447752</v>
+        <v>6.283716627113607</v>
       </c>
       <c r="O15">
-        <v>9.510575685534954</v>
+        <v>12.32170983937359</v>
       </c>
       <c r="P15">
-        <v>13.24094734311351</v>
+        <v>5.390393470918568</v>
       </c>
       <c r="Q15">
-        <v>15.26497824234088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.427549468071591</v>
+      </c>
+      <c r="R15">
+        <v>13.16386823123953</v>
+      </c>
+      <c r="S15">
+        <v>14.70168799758826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.44123356492709</v>
+        <v>14.0712092435263</v>
       </c>
       <c r="C16">
-        <v>9.006869041432836</v>
+        <v>8.816478384446221</v>
       </c>
       <c r="D16">
-        <v>5.402293386003942</v>
+        <v>5.467223686872894</v>
       </c>
       <c r="E16">
-        <v>7.327928799586177</v>
+        <v>7.270151572328225</v>
       </c>
       <c r="F16">
-        <v>20.59610611815233</v>
+        <v>19.95736629590048</v>
       </c>
       <c r="G16">
-        <v>22.93989208045032</v>
+        <v>22.12370973205682</v>
       </c>
       <c r="H16">
-        <v>6.919553282950281</v>
+        <v>6.879444593351811</v>
       </c>
       <c r="I16">
-        <v>3.438566944514915</v>
+        <v>3.306712463826204</v>
       </c>
       <c r="J16">
-        <v>9.446460596117705</v>
+        <v>9.320789056639956</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.289948889513471</v>
+        <v>11.67396731742922</v>
       </c>
       <c r="M16">
-        <v>12.00993962174623</v>
+        <v>10.40378443065501</v>
       </c>
       <c r="N16">
-        <v>5.196731755541472</v>
+        <v>6.260044040485464</v>
       </c>
       <c r="O16">
-        <v>9.370908250964497</v>
+        <v>12.01135341222035</v>
       </c>
       <c r="P16">
-        <v>13.32049801946994</v>
+        <v>5.394850336009407</v>
       </c>
       <c r="Q16">
-        <v>15.32868257886297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.298788130414319</v>
+      </c>
+      <c r="R16">
+        <v>13.2231893132802</v>
+      </c>
+      <c r="S16">
+        <v>14.84176250065254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.26548114135471</v>
+        <v>13.90451473137282</v>
       </c>
       <c r="C17">
-        <v>8.88707489956689</v>
+        <v>8.681645225376261</v>
       </c>
       <c r="D17">
-        <v>5.46273804160374</v>
+        <v>5.518108874927038</v>
       </c>
       <c r="E17">
-        <v>7.390468544452282</v>
+        <v>7.329019749578038</v>
       </c>
       <c r="F17">
-        <v>20.85827648318227</v>
+        <v>20.24976616703495</v>
       </c>
       <c r="G17">
-        <v>23.28622921970095</v>
+        <v>22.19099555704033</v>
       </c>
       <c r="H17">
-        <v>6.239655684605323</v>
+        <v>6.191783478326101</v>
       </c>
       <c r="I17">
-        <v>3.485359109102041</v>
+        <v>3.347518344871032</v>
       </c>
       <c r="J17">
-        <v>9.530415938234784</v>
+        <v>9.495316783785173</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.246890754596472</v>
+        <v>11.82501476628416</v>
       </c>
       <c r="M17">
-        <v>11.80923230270253</v>
+        <v>10.51845427604696</v>
       </c>
       <c r="N17">
-        <v>5.311782612984856</v>
+        <v>6.212536316013631</v>
       </c>
       <c r="O17">
-        <v>9.441208674019142</v>
+        <v>11.82557334924039</v>
       </c>
       <c r="P17">
-        <v>13.35960731298719</v>
+        <v>5.516143415349329</v>
       </c>
       <c r="Q17">
-        <v>15.50468494944746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.372607998425114</v>
+      </c>
+      <c r="R17">
+        <v>13.24893379775612</v>
+      </c>
+      <c r="S17">
+        <v>15.03837052257634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31091677392079</v>
+        <v>13.93590746453932</v>
       </c>
       <c r="C18">
-        <v>8.736181049796457</v>
+        <v>8.515042475570899</v>
       </c>
       <c r="D18">
-        <v>5.636200530384208</v>
+        <v>5.68945832640649</v>
       </c>
       <c r="E18">
-        <v>7.55732052650296</v>
+        <v>7.485288916012027</v>
       </c>
       <c r="F18">
-        <v>21.3776553488017</v>
+        <v>20.7558427811808</v>
       </c>
       <c r="G18">
-        <v>23.9739726895377</v>
+        <v>22.72829372551092</v>
       </c>
       <c r="H18">
-        <v>5.101544102787504</v>
+        <v>5.041742308383369</v>
       </c>
       <c r="I18">
-        <v>3.491752753643292</v>
+        <v>3.350550702368167</v>
       </c>
       <c r="J18">
-        <v>9.65796930894987</v>
+        <v>9.654038818191717</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.204151645124802</v>
+        <v>12.02850562888878</v>
       </c>
       <c r="M18">
-        <v>11.71367663865475</v>
+        <v>10.70119583288297</v>
       </c>
       <c r="N18">
-        <v>5.555297140495784</v>
+        <v>6.161699971585042</v>
       </c>
       <c r="O18">
-        <v>9.701753434890174</v>
+        <v>11.73652125109101</v>
       </c>
       <c r="P18">
-        <v>13.37300204171372</v>
+        <v>5.769672427319125</v>
       </c>
       <c r="Q18">
-        <v>15.80551585923788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.632795060166556</v>
+      </c>
+      <c r="R18">
+        <v>13.25064326795556</v>
+      </c>
+      <c r="S18">
+        <v>15.3285955539007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.5044276939246</v>
+        <v>14.10059198854605</v>
       </c>
       <c r="C19">
-        <v>8.603088400336317</v>
+        <v>8.370312289443824</v>
       </c>
       <c r="D19">
-        <v>5.889007633708816</v>
+        <v>5.944220781113827</v>
       </c>
       <c r="E19">
-        <v>7.85863249757726</v>
+        <v>7.771334650770768</v>
       </c>
       <c r="F19">
-        <v>22.04070786766277</v>
+        <v>21.37879059520364</v>
       </c>
       <c r="G19">
-        <v>24.841449015774</v>
+        <v>23.50113460169541</v>
       </c>
       <c r="H19">
-        <v>3.828349539524643</v>
+        <v>3.75057211544516</v>
       </c>
       <c r="I19">
-        <v>3.480564928807625</v>
+        <v>3.34173789194057</v>
       </c>
       <c r="J19">
-        <v>9.804588679201542</v>
+        <v>9.799180905125167</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.19903911614858</v>
+        <v>12.25186098901948</v>
       </c>
       <c r="M19">
-        <v>11.71171016446862</v>
+        <v>10.91665109796955</v>
       </c>
       <c r="N19">
-        <v>5.915820906130344</v>
+        <v>6.145392401827516</v>
       </c>
       <c r="O19">
-        <v>10.09002708289226</v>
+        <v>11.73626950137469</v>
       </c>
       <c r="P19">
-        <v>13.37277346695872</v>
+        <v>6.14242681076573</v>
       </c>
       <c r="Q19">
-        <v>16.16797899374287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.01837488195546</v>
+      </c>
+      <c r="R19">
+        <v>13.23951097075043</v>
+      </c>
+      <c r="S19">
+        <v>15.66148653937423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.13694794238845</v>
+        <v>14.66687084992375</v>
       </c>
       <c r="C20">
-        <v>8.485827567401566</v>
+        <v>8.248459850876188</v>
       </c>
       <c r="D20">
-        <v>6.343681309327462</v>
+        <v>6.411891011191173</v>
       </c>
       <c r="E20">
-        <v>8.492879242559795</v>
+        <v>8.380068845020688</v>
       </c>
       <c r="F20">
-        <v>23.12848556768362</v>
+        <v>22.35136147240107</v>
       </c>
       <c r="G20">
-        <v>26.25919812769901</v>
+        <v>24.98198422788539</v>
       </c>
       <c r="H20">
-        <v>2.67065774910942</v>
+        <v>2.575325797626272</v>
       </c>
       <c r="I20">
-        <v>3.389931536092763</v>
+        <v>3.262854139154768</v>
       </c>
       <c r="J20">
-        <v>10.0135653524692</v>
+        <v>9.905215899074475</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.289087684109453</v>
+        <v>12.52421062459694</v>
       </c>
       <c r="M20">
-        <v>11.97042038897226</v>
+        <v>11.2590615468922</v>
       </c>
       <c r="N20">
-        <v>6.557753580080185</v>
+        <v>6.21535815496606</v>
       </c>
       <c r="O20">
-        <v>10.8150684453101</v>
+        <v>11.98468317555264</v>
       </c>
       <c r="P20">
-        <v>13.3257688888091</v>
+        <v>6.803703270198104</v>
       </c>
       <c r="Q20">
-        <v>16.72487846335802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.73426104822443</v>
+      </c>
+      <c r="R20">
+        <v>13.1798216413998</v>
+      </c>
+      <c r="S20">
+        <v>16.13430261337806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.02408607257075</v>
+        <v>15.45542293371192</v>
       </c>
       <c r="C21">
-        <v>8.600990673820101</v>
+        <v>8.391670498889496</v>
       </c>
       <c r="D21">
-        <v>6.590858216062228</v>
+        <v>6.718859497331871</v>
       </c>
       <c r="E21">
-        <v>8.666441937121613</v>
+        <v>8.55354714701831</v>
       </c>
       <c r="F21">
-        <v>23.49156164122748</v>
+        <v>22.44160218814029</v>
       </c>
       <c r="G21">
-        <v>26.72272719363739</v>
+        <v>26.89865995366908</v>
       </c>
       <c r="H21">
-        <v>2.44698252973228</v>
+        <v>2.37310252677892</v>
       </c>
       <c r="I21">
-        <v>3.225511736384865</v>
+        <v>3.124196095720964</v>
       </c>
       <c r="J21">
-        <v>10.01274467716699</v>
+        <v>9.321335925186551</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.329293868357581</v>
+        <v>12.31892831629801</v>
       </c>
       <c r="M21">
-        <v>12.61153045051703</v>
+        <v>11.30013161701212</v>
       </c>
       <c r="N21">
-        <v>6.760290442504657</v>
+        <v>6.246942190370309</v>
       </c>
       <c r="O21">
-        <v>11.26641757351294</v>
+        <v>12.55890696159138</v>
       </c>
       <c r="P21">
-        <v>13.16326908169951</v>
+        <v>7.012949602735667</v>
       </c>
       <c r="Q21">
-        <v>16.82383663922377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.15938198194919</v>
+      </c>
+      <c r="R21">
+        <v>13.03126673700907</v>
+      </c>
+      <c r="S21">
+        <v>16.03062808350673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57631609394112</v>
+        <v>15.94413945023681</v>
       </c>
       <c r="C22">
-        <v>8.673312701163132</v>
+        <v>8.478366663313237</v>
       </c>
       <c r="D22">
-        <v>6.729577937703109</v>
+        <v>6.899600293235</v>
       </c>
       <c r="E22">
-        <v>8.749210472879305</v>
+        <v>8.639320609211858</v>
       </c>
       <c r="F22">
-        <v>23.70494743133974</v>
+        <v>22.46527962585554</v>
       </c>
       <c r="G22">
-        <v>27.00269060568912</v>
+        <v>28.27192294019209</v>
       </c>
       <c r="H22">
-        <v>2.314890761528688</v>
+        <v>2.254634666095809</v>
       </c>
       <c r="I22">
-        <v>3.112157694904079</v>
+        <v>3.025034293271029</v>
       </c>
       <c r="J22">
-        <v>10.00982709493803</v>
+        <v>8.971205625641208</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.349805358162232</v>
+        <v>12.17929721282904</v>
       </c>
       <c r="M22">
-        <v>13.01039228846551</v>
+        <v>11.32567834437539</v>
       </c>
       <c r="N22">
-        <v>6.85681786802534</v>
+        <v>6.262789735304406</v>
       </c>
       <c r="O22">
-        <v>11.52748095735342</v>
+        <v>12.91249240645893</v>
       </c>
       <c r="P22">
-        <v>13.05815552367161</v>
+        <v>7.113108970210657</v>
       </c>
       <c r="Q22">
-        <v>16.88121001920458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.40235156233092</v>
+      </c>
+      <c r="R22">
+        <v>12.93716728309206</v>
+      </c>
+      <c r="S22">
+        <v>15.94505398751641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.29788749324403</v>
+        <v>15.70575504381408</v>
       </c>
       <c r="C23">
-        <v>8.62633907591221</v>
+        <v>8.42537894740015</v>
       </c>
       <c r="D23">
-        <v>6.654544511715346</v>
+        <v>6.795648383370967</v>
       </c>
       <c r="E23">
-        <v>8.708254202764628</v>
+        <v>8.594777219792013</v>
       </c>
       <c r="F23">
-        <v>23.60937268762458</v>
+        <v>22.49444112949573</v>
       </c>
       <c r="G23">
-        <v>26.88380351050645</v>
+        <v>27.38585291235441</v>
       </c>
       <c r="H23">
-        <v>2.384247604512444</v>
+        <v>2.31601146105343</v>
       </c>
       <c r="I23">
-        <v>3.161638573028025</v>
+        <v>3.06420965226046</v>
       </c>
       <c r="J23">
-        <v>10.01649795878434</v>
+        <v>9.208173295472111</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.340076847802677</v>
+        <v>12.27157843379448</v>
       </c>
       <c r="M23">
-        <v>12.79901200554773</v>
+        <v>11.3331300474892</v>
       </c>
       <c r="N23">
-        <v>6.801079285255721</v>
+        <v>6.255822798776169</v>
       </c>
       <c r="O23">
-        <v>11.39075536939278</v>
+        <v>12.7320087845283</v>
       </c>
       <c r="P23">
-        <v>13.11460834173063</v>
+        <v>7.055581998294286</v>
       </c>
       <c r="Q23">
-        <v>16.86335813589106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.27770668410486</v>
+      </c>
+      <c r="R23">
+        <v>12.986649282456</v>
+      </c>
+      <c r="S23">
+        <v>16.02133642653006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.17209526417723</v>
+        <v>14.6998482017822</v>
       </c>
       <c r="C24">
-        <v>8.460469569858766</v>
+        <v>8.214658282605484</v>
       </c>
       <c r="D24">
-        <v>6.36661281365908</v>
+        <v>6.434643198059402</v>
       </c>
       <c r="E24">
-        <v>8.546016162582147</v>
+        <v>8.431546132918701</v>
       </c>
       <c r="F24">
-        <v>23.2285071015343</v>
+        <v>22.44833245994966</v>
       </c>
       <c r="G24">
-        <v>26.40058320063131</v>
+        <v>25.10496247551374</v>
       </c>
       <c r="H24">
-        <v>2.654558093553353</v>
+        <v>2.559097645223103</v>
       </c>
       <c r="I24">
-        <v>3.372544532244386</v>
+        <v>3.24231106812467</v>
       </c>
       <c r="J24">
-        <v>10.03838888131545</v>
+        <v>9.933062734465368</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.30025605545409</v>
+        <v>12.56890858178508</v>
       </c>
       <c r="M24">
-        <v>11.96427052596545</v>
+        <v>11.30113402492919</v>
       </c>
       <c r="N24">
-        <v>6.594387211115025</v>
+        <v>6.2249676866502</v>
       </c>
       <c r="O24">
-        <v>10.85542244591697</v>
+        <v>11.97909591335918</v>
       </c>
       <c r="P24">
-        <v>13.33023214348688</v>
+        <v>6.841484791243031</v>
       </c>
       <c r="Q24">
-        <v>16.78542178784694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.77448624378503</v>
+      </c>
+      <c r="R24">
+        <v>13.18183306432155</v>
+      </c>
+      <c r="S24">
+        <v>16.19231157566573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.85403880394678</v>
+        <v>13.44368462244756</v>
       </c>
       <c r="C25">
-        <v>8.277508720966912</v>
+        <v>7.92372943997019</v>
       </c>
       <c r="D25">
-        <v>6.045032092531109</v>
+        <v>6.105029748359014</v>
       </c>
       <c r="E25">
-        <v>8.36692963989691</v>
+        <v>8.27108819106817</v>
       </c>
       <c r="F25">
-        <v>22.8432857557568</v>
+        <v>22.16167618802872</v>
       </c>
       <c r="G25">
-        <v>25.91795316378641</v>
+        <v>24.63619701450297</v>
       </c>
       <c r="H25">
-        <v>2.959931636090156</v>
+        <v>2.84410626822448</v>
       </c>
       <c r="I25">
-        <v>3.613378936248247</v>
+        <v>3.456554870047793</v>
       </c>
       <c r="J25">
-        <v>10.07307666488159</v>
+        <v>10.0083332297263</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.254914836652987</v>
+        <v>12.80553191336105</v>
       </c>
       <c r="M25">
-        <v>10.99110314898961</v>
+        <v>11.21289085883236</v>
       </c>
       <c r="N25">
-        <v>6.36657903305072</v>
+        <v>6.184515425241541</v>
       </c>
       <c r="O25">
-        <v>10.24954320760788</v>
+        <v>11.01833714071568</v>
       </c>
       <c r="P25">
-        <v>13.56843289815772</v>
+        <v>6.604132724239893</v>
       </c>
       <c r="Q25">
-        <v>16.72474600065845</v>
+        <v>10.17616085139559</v>
+      </c>
+      <c r="R25">
+        <v>13.40129778994755</v>
+      </c>
+      <c r="S25">
+        <v>16.19797942994195</v>
       </c>
     </row>
   </sheetData>
